--- a/resource/Java単元課題4-チェックリスト.xlsx
+++ b/resource/Java単元課題4-チェックリスト.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KinjoAkari\研修用\axiz-php-master\text\Java\Java応用\課題\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407BCB6-D902-4C8B-8D79-124FF37981DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{11E9B426-4824-49DD-9974-CFB1B2F3785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1536" yWindow="1536" windowWidth="19464" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="2" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">発展!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1847,7 +1844,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2535,32 +2532,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3252,7 +3249,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3261,21 +3258,21 @@
       <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3298,8 +3295,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="55" thickTop="1" thickBot="1">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="2:9" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7">
@@ -3317,8 +3314,8 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:9" ht="72.5" thickTop="1">
-      <c r="B4" s="43"/>
+    <row r="4" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -3334,8 +3331,8 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="60" customHeight="1">
-      <c r="B5" s="43"/>
+    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -3351,8 +3348,8 @@
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="2:9" ht="36.5" thickBot="1">
-      <c r="B6" s="43"/>
+    <row r="6" spans="2:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
       <c r="C6" s="23">
         <v>1.4</v>
       </c>
@@ -3368,8 +3365,8 @@
       <c r="G6" s="39"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="2:9" ht="36.5" customHeight="1" thickTop="1">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:9" ht="36.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7">
@@ -3387,8 +3384,8 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="54">
-      <c r="B8" s="43"/>
+    <row r="8" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -3404,8 +3401,8 @@
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:9" ht="54">
-      <c r="B9" s="43"/>
+    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
       <c r="C9" s="23">
         <v>2.2999999999999998</v>
       </c>
@@ -3421,8 +3418,8 @@
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="2:9" ht="36">
-      <c r="B10" s="43"/>
+    <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
       <c r="C10" s="17">
         <v>2.4</v>
       </c>
@@ -3439,8 +3436,8 @@
       <c r="H10" s="20"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="2:9" ht="62.5" customHeight="1">
-      <c r="B11" s="43"/>
+    <row r="11" spans="2:9" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
       <c r="C11" s="17">
         <v>2.5</v>
       </c>
@@ -3457,8 +3454,8 @@
       <c r="H11" s="20"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="2:9" ht="54">
-      <c r="B12" s="43"/>
+    <row r="12" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
       <c r="C12" s="23">
         <v>2.6</v>
       </c>
@@ -3475,8 +3472,8 @@
       <c r="H12" s="26"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" ht="36">
-      <c r="B13" s="43"/>
+    <row r="13" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
       <c r="C13" s="17">
         <v>2.7</v>
       </c>
@@ -3493,8 +3490,8 @@
       <c r="H13" s="20"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="2:9" ht="36">
-      <c r="B14" s="43"/>
+    <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
       <c r="C14" s="23">
         <v>2.8</v>
       </c>
@@ -3511,8 +3508,8 @@
       <c r="H14" s="20"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="2:9" ht="18.5" thickBot="1">
-      <c r="B15" s="45"/>
+    <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
       <c r="C15" s="23">
         <v>2.9</v>
       </c>
@@ -3529,8 +3526,8 @@
       <c r="H15" s="20"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="2:9" ht="72.5" thickTop="1">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="7">
@@ -3549,8 +3546,8 @@
       <c r="H16" s="10"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="2:9" ht="54">
-      <c r="B17" s="43"/>
+    <row r="17" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
       <c r="C17" s="17">
         <v>3.2</v>
       </c>
@@ -3567,8 +3564,8 @@
       <c r="H17" s="20"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="2:9" ht="54">
-      <c r="B18" s="43"/>
+    <row r="18" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
       <c r="C18" s="23">
         <v>3.3</v>
       </c>
@@ -3585,8 +3582,8 @@
       <c r="H18" s="20"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="2:9" ht="54">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
       <c r="C19" s="17">
         <v>3.4</v>
       </c>
@@ -3603,8 +3600,8 @@
       <c r="H19" s="20"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="2:9" ht="36">
-      <c r="B20" s="43"/>
+    <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
       <c r="C20" s="23">
         <v>3.5</v>
       </c>
@@ -3621,8 +3618,8 @@
       <c r="H20" s="20"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:9" ht="54">
-      <c r="B21" s="43"/>
+    <row r="21" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
       <c r="C21" s="17">
         <v>3.6</v>
       </c>
@@ -3639,8 +3636,8 @@
       <c r="H21" s="20"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="2:9" ht="54.5" thickBot="1">
-      <c r="B22" s="43"/>
+    <row r="22" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
       <c r="C22" s="23">
         <v>3.7</v>
       </c>
@@ -3657,8 +3654,8 @@
       <c r="H22" s="20"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="2:9" ht="36.5" thickTop="1">
-      <c r="B23" s="42" t="s">
+    <row r="23" spans="2:9" ht="36.450000000000003" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="45" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="7">
@@ -3677,8 +3674,8 @@
       <c r="H23" s="10"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="2:9" ht="36">
-      <c r="B24" s="43"/>
+    <row r="24" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="17">
         <v>4.2</v>
       </c>
@@ -3695,8 +3692,8 @@
       <c r="H24" s="20"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="2:9" ht="54">
-      <c r="B25" s="43"/>
+    <row r="25" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
       <c r="C25" s="23">
         <v>4.3</v>
       </c>
@@ -3713,8 +3710,8 @@
       <c r="H25" s="20"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="2:9" ht="72">
-      <c r="B26" s="43"/>
+    <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
       <c r="C26" s="23"/>
       <c r="D26" s="18" t="s">
         <v>135</v>
@@ -3729,8 +3726,8 @@
       <c r="H26" s="20"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="2:9" ht="36">
-      <c r="B27" s="46"/>
+    <row r="27" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B27" s="47"/>
       <c r="C27" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -3747,8 +3744,8 @@
       <c r="H27" s="20"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="2:9" ht="36">
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B28" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="23">
@@ -3767,8 +3764,8 @@
       <c r="H28" s="26"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" ht="36">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B29" s="46"/>
       <c r="C29" s="23">
         <v>5.2</v>
       </c>
@@ -3785,8 +3782,8 @@
       <c r="H29" s="26"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="2:9" ht="54">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B30" s="46"/>
       <c r="C30" s="23">
         <v>5.3</v>
       </c>
@@ -3803,8 +3800,8 @@
       <c r="H30" s="26"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:9" ht="54">
-      <c r="B31" s="43"/>
+    <row r="31" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B31" s="46"/>
       <c r="C31" s="23">
         <v>5.4</v>
       </c>
@@ -3821,8 +3818,8 @@
       <c r="H31" s="26"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="2:9" ht="36">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B32" s="46"/>
       <c r="C32" s="23">
         <v>5.5</v>
       </c>
@@ -3839,8 +3836,8 @@
       <c r="H32" s="26"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="2:9" ht="54">
-      <c r="B33" s="43"/>
+    <row r="33" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B33" s="46"/>
       <c r="C33" s="23">
         <v>5.6</v>
       </c>
@@ -3857,8 +3854,8 @@
       <c r="H33" s="26"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="2:9" ht="72">
-      <c r="B34" s="43"/>
+    <row r="34" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B34" s="46"/>
       <c r="C34" s="23">
         <v>5.7</v>
       </c>
@@ -3875,12 +3872,12 @@
       <c r="H34" s="26"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="2:9" ht="72.5" thickBot="1">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:9" ht="72.45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50"/>
       <c r="C35" s="23">
         <v>5.8</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="42" t="s">
         <v>131</v>
       </c>
       <c r="E35" s="28" t="s">
@@ -3889,16 +3886,16 @@
       <c r="F35" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="37" spans="2:9" ht="18.5" thickBot="1">
+    <row r="37" spans="2:9" ht="18.45" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G38" s="31" t="s">
         <v>24</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G39" s="33" t="s">
         <v>25</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G40" s="33" t="s">
         <v>26</v>
       </c>
@@ -3925,7 +3922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="18.5" thickBot="1">
+    <row r="41" spans="2:9" ht="18.45" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G41" s="35" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +4105,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -4117,21 +4114,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4154,8 +4151,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="46" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="7">
@@ -4173,8 +4170,8 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="36">
-      <c r="B4" s="43"/>
+    <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -4190,8 +4187,8 @@
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="2:8" ht="36">
-      <c r="B5" s="43"/>
+    <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -4207,8 +4204,8 @@
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B6" s="43"/>
+    <row r="6" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
       <c r="C6" s="11">
         <v>1.4</v>
       </c>
@@ -4224,8 +4221,8 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="7">
@@ -4243,8 +4240,8 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="72">
-      <c r="B8" s="43"/>
+    <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4260,8 +4257,8 @@
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="2:8" ht="54">
-      <c r="B9" s="43"/>
+    <row r="9" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
       <c r="C9" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4277,8 +4274,8 @@
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B10" s="43"/>
+    <row r="10" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
       <c r="C10" s="11">
         <v>2.4</v>
       </c>
@@ -4294,8 +4291,8 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="90.5" thickTop="1">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:8" ht="90.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="7">
@@ -4313,8 +4310,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="54">
-      <c r="B12" s="43"/>
+    <row r="12" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
       <c r="C12" s="17">
         <v>3.2</v>
       </c>
@@ -4330,8 +4327,8 @@
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:8" ht="54">
-      <c r="B13" s="43"/>
+    <row r="13" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
       <c r="C13" s="17">
         <v>3.3</v>
       </c>
@@ -4347,8 +4344,8 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:8" ht="54">
-      <c r="B14" s="43"/>
+    <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
       <c r="C14" s="17">
         <v>3.4</v>
       </c>
@@ -4364,8 +4361,8 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="2:8" ht="54">
-      <c r="B15" s="43"/>
+    <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B15" s="46"/>
       <c r="C15" s="17">
         <v>3.5</v>
       </c>
@@ -4381,8 +4378,8 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="2:8" ht="54">
-      <c r="B16" s="43"/>
+    <row r="16" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B16" s="46"/>
       <c r="C16" s="17">
         <v>3.6</v>
       </c>
@@ -4398,8 +4395,8 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="2:8" ht="54">
-      <c r="B17" s="43"/>
+    <row r="17" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
       <c r="C17" s="17">
         <v>3.7</v>
       </c>
@@ -4415,8 +4412,8 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="2:8" ht="90">
-      <c r="B18" s="43"/>
+    <row r="18" spans="2:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
       <c r="C18" s="17">
         <v>3.8</v>
       </c>
@@ -4432,8 +4429,8 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="2:8" ht="54">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
       <c r="C19" s="17">
         <v>3.9</v>
       </c>
@@ -4449,8 +4446,8 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="2:8" ht="36">
-      <c r="B20" s="43"/>
+    <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
       <c r="C20" s="41" t="s">
         <v>67</v>
       </c>
@@ -4466,8 +4463,8 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="2:8" ht="36">
-      <c r="B21" s="43"/>
+    <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
       <c r="C21" s="41" t="s">
         <v>70</v>
       </c>
@@ -4483,8 +4480,8 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" ht="36">
-      <c r="B22" s="43"/>
+    <row r="22" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B22" s="46"/>
       <c r="C22" s="41" t="s">
         <v>72</v>
       </c>
@@ -4500,8 +4497,8 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" ht="36">
-      <c r="B23" s="43"/>
+    <row r="23" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B23" s="46"/>
       <c r="C23" s="41" t="s">
         <v>74</v>
       </c>
@@ -4517,8 +4514,8 @@
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="2:8" ht="36">
-      <c r="B24" s="43"/>
+    <row r="24" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="41" t="s">
         <v>76</v>
       </c>
@@ -4534,8 +4531,8 @@
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="2:8" ht="54">
-      <c r="B25" s="43"/>
+    <row r="25" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
       <c r="C25" s="41" t="s">
         <v>78</v>
       </c>
@@ -4551,8 +4548,8 @@
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="2:8" ht="36">
-      <c r="B26" s="43"/>
+    <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
       <c r="C26" s="41" t="s">
         <v>81</v>
       </c>
@@ -4568,8 +4565,8 @@
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B27" s="43"/>
+    <row r="27" spans="2:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="46"/>
       <c r="C27" s="41" t="s">
         <v>83</v>
       </c>
@@ -4585,8 +4582,8 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" ht="72.5" thickTop="1">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="2:8" ht="72.45" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="7">
@@ -4604,8 +4601,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="2:8" ht="72">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B29" s="46"/>
       <c r="C29" s="17">
         <v>4.2</v>
       </c>
@@ -4621,8 +4618,8 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:8" ht="90">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="B30" s="46"/>
       <c r="C30" s="17">
         <v>4.3</v>
       </c>
@@ -4638,8 +4635,8 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="2:8" ht="54">
-      <c r="B31" s="43"/>
+    <row r="31" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B31" s="46"/>
       <c r="C31" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -4655,8 +4652,8 @@
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="2:8" ht="36">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B32" s="46"/>
       <c r="C32" s="17">
         <v>4.5</v>
       </c>
@@ -4672,8 +4669,8 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B33" s="43"/>
+    <row r="33" spans="2:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="46"/>
       <c r="C33" s="11">
         <v>4.5999999999999996</v>
       </c>
@@ -4689,8 +4686,8 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="2:8" ht="36.450000000000003" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="7">
@@ -4708,8 +4705,8 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B35" s="43"/>
+    <row r="35" spans="2:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="46"/>
       <c r="C35" s="11">
         <v>5.2</v>
       </c>
@@ -4725,8 +4722,8 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:8" ht="54.45" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="23">
@@ -4744,8 +4741,8 @@
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="2:8" ht="72">
-      <c r="B37" s="43"/>
+    <row r="37" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B37" s="46"/>
       <c r="C37" s="17">
         <v>6.2</v>
       </c>
@@ -4761,8 +4758,8 @@
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="2:8" ht="72">
-      <c r="B38" s="43"/>
+    <row r="38" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B38" s="46"/>
       <c r="C38" s="17">
         <v>6.3</v>
       </c>
@@ -4778,8 +4775,8 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="2:8" ht="54">
-      <c r="B39" s="43"/>
+    <row r="39" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B39" s="46"/>
       <c r="C39" s="17">
         <v>6.4</v>
       </c>
@@ -4795,8 +4792,8 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B40" s="43"/>
+    <row r="40" spans="2:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="46"/>
       <c r="C40" s="11">
         <v>6.5</v>
       </c>
@@ -4812,8 +4809,8 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:8" ht="54.45" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="7">
@@ -4831,8 +4828,8 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="2:8" ht="36">
-      <c r="B42" s="43"/>
+    <row r="42" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B42" s="46"/>
       <c r="C42" s="17">
         <v>7.2</v>
       </c>
@@ -4848,8 +4845,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="2:8" ht="36">
-      <c r="B43" s="43"/>
+    <row r="43" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B43" s="46"/>
       <c r="C43" s="17">
         <v>7.3</v>
       </c>
@@ -4865,8 +4862,8 @@
       <c r="G43" s="19"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" ht="54.5" thickBot="1">
-      <c r="B44" s="43"/>
+    <row r="44" spans="2:8" ht="54.45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="46"/>
       <c r="C44" s="11">
         <v>7.4</v>
       </c>
@@ -4882,8 +4879,8 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B45" s="42" t="s">
+    <row r="45" spans="2:8" ht="36.450000000000003" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="7">
@@ -4901,8 +4898,8 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:8" ht="36.450000000000003" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="50"/>
       <c r="C46" s="27">
         <v>8.1999999999999993</v>
       </c>
@@ -4918,12 +4915,12 @@
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="48" spans="2:8" ht="18.5" thickBot="1">
+    <row r="48" spans="2:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G48" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G49" s="31" t="s">
         <v>24</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G50" s="33" t="s">
         <v>25</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G51" s="33" t="s">
         <v>26</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="7:8" ht="18.5" thickBot="1">
+    <row r="52" spans="7:8" ht="18.45" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G52" s="35" t="s">
         <v>1</v>
       </c>
